--- a/Framework_DX11/Client/Bin/DataFiles/Item_Initialize_Data.xlsx
+++ b/Framework_DX11/Client/Bin/DataFiles/Item_Initialize_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeamProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Client\Bin\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6AB4B61-090C-476F-9ECD-88FB0B0204B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91CAE123-123C-4DA2-966F-93552D5914D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Item_Initialize_Data" sheetId="1" r:id="rId1"/>
@@ -1624,8 +1624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Framework_DX11/Client/Bin/DataFiles/Item_Initialize_Data.xlsx
+++ b/Framework_DX11/Client/Bin/DataFiles/Item_Initialize_Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Client\Bin\DataFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeamProject\Bulid\NewBulid_11_27\Dx11_LiesOfP\Framework_DX11\Client\Bin\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91CAE123-123C-4DA2-966F-93552D5914D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7D2C5A3-F9C7-49ED-B1C0-F37D49DF1661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,18 +38,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="394">
   <si>
     <t xml:space="preserve">	EQUIP_WEAPON_BLADE_0</t>
   </si>
   <si>
-    <t xml:space="preserve">	EQUIP_WEAPON_HANDLE_0</t>
-  </si>
-  <si>
     <t xml:space="preserve">	EQUIP_WEAPON_BLADE_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	EQUIP_WEAPON_HANDLE_1</t>
   </si>
   <si>
     <t xml:space="preserve">	EQUIP_RESION_ARM</t>
@@ -1622,10 +1616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D73"/>
+  <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L45" sqref="L45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1635,22 +1629,22 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -2374,13 +2368,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C51" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" s="3">
         <v>0</v>
@@ -2388,13 +2382,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C52" s="3">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D52" s="3">
         <v>0</v>
@@ -2402,13 +2396,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C53" s="3">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D53" s="3">
         <v>0</v>
@@ -2416,27 +2410,27 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C54" s="3">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D54" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C55" s="3">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D55" s="3">
         <v>0</v>
@@ -2444,27 +2438,27 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C56" s="3">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D56" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C57" s="3">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D57" s="3">
         <v>0</v>
@@ -2472,13 +2466,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C58" s="3">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D58" s="3">
         <v>0</v>
@@ -2486,13 +2480,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C59" s="3">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D59" s="3">
         <v>0</v>
@@ -2500,13 +2494,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C60" s="3">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D60" s="3">
         <v>0</v>
@@ -2514,27 +2508,27 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C61" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C62" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D62" s="3">
         <v>0</v>
@@ -2542,63 +2536,63 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C63" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D63" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C64" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D64" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C65" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D65" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C66" s="3">
+        <v>2</v>
+      </c>
+      <c r="D66" s="3">
         <v>1</v>
-      </c>
-      <c r="D66" s="3">
-        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>17</v>
@@ -2607,12 +2601,12 @@
         <v>2</v>
       </c>
       <c r="D67" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>18</v>
@@ -2621,40 +2615,40 @@
         <v>2</v>
       </c>
       <c r="D68" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C69" s="3">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D69" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C70" s="3">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D70" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>21</v>
@@ -2663,34 +2657,6 @@
         <v>-1</v>
       </c>
       <c r="D71" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72">
-        <v>22</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C72" s="3">
-        <v>-1</v>
-      </c>
-      <c r="D72" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73">
-        <v>23</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C73" s="3">
-        <v>-1</v>
-      </c>
-      <c r="D73" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2719,10 +2685,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -2730,7 +2696,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -2738,7 +2704,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -2746,7 +2712,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -2754,7 +2720,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -2762,7 +2728,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -2770,7 +2736,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -2778,7 +2744,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -2786,7 +2752,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -2794,7 +2760,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -2802,7 +2768,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -2810,7 +2776,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -2818,7 +2784,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -2826,7 +2792,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -2834,7 +2800,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -2842,7 +2808,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -2850,7 +2816,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -2858,7 +2824,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -2866,7 +2832,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -2874,7 +2840,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -2882,7 +2848,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -2890,7 +2856,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -2898,7 +2864,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -2906,7 +2872,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -2914,7 +2880,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -2922,7 +2888,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -2930,7 +2896,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -2938,7 +2904,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -2946,7 +2912,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -2954,7 +2920,7 @@
         <v>28</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -2962,7 +2928,7 @@
         <v>29</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -2970,7 +2936,7 @@
         <v>30</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -2978,7 +2944,7 @@
         <v>31</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -2986,7 +2952,7 @@
         <v>32</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -2994,7 +2960,7 @@
         <v>33</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -3002,7 +2968,7 @@
         <v>34</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -3010,7 +2976,7 @@
         <v>35</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -3018,7 +2984,7 @@
         <v>36</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -3026,7 +2992,7 @@
         <v>37</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -3034,7 +3000,7 @@
         <v>38</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -3042,7 +3008,7 @@
         <v>39</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -3050,7 +3016,7 @@
         <v>40</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -3058,7 +3024,7 @@
         <v>41</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -3066,7 +3032,7 @@
         <v>42</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -3074,7 +3040,7 @@
         <v>43</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -3082,7 +3048,7 @@
         <v>44</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -3090,7 +3056,7 @@
         <v>45</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -3098,7 +3064,7 @@
         <v>46</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -3106,7 +3072,7 @@
         <v>47</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -3114,7 +3080,7 @@
         <v>48</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -3122,7 +3088,7 @@
         <v>49</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -3130,7 +3096,7 @@
         <v>50</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -3138,7 +3104,7 @@
         <v>51</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -3146,7 +3112,7 @@
         <v>52</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -3154,7 +3120,7 @@
         <v>53</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -3162,7 +3128,7 @@
         <v>54</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -3170,7 +3136,7 @@
         <v>55</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -3178,7 +3144,7 @@
         <v>56</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -3186,7 +3152,7 @@
         <v>57</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
@@ -3194,7 +3160,7 @@
         <v>58</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
@@ -3202,7 +3168,7 @@
         <v>59</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
@@ -3210,7 +3176,7 @@
         <v>60</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
@@ -3218,7 +3184,7 @@
         <v>61</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
@@ -3226,7 +3192,7 @@
         <v>62</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
@@ -3234,7 +3200,7 @@
         <v>63</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
@@ -3242,7 +3208,7 @@
         <v>64</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
@@ -3250,7 +3216,7 @@
         <v>65</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
@@ -3258,7 +3224,7 @@
         <v>66</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
@@ -3266,7 +3232,7 @@
         <v>67</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
@@ -3274,7 +3240,7 @@
         <v>68</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
@@ -3282,7 +3248,7 @@
         <v>69</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
@@ -3290,7 +3256,7 @@
         <v>70</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
@@ -3298,7 +3264,7 @@
         <v>71</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
@@ -3306,7 +3272,7 @@
         <v>72</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
@@ -3314,7 +3280,7 @@
         <v>73</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
@@ -3322,7 +3288,7 @@
         <v>74</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
@@ -3330,7 +3296,7 @@
         <v>75</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
@@ -3338,7 +3304,7 @@
         <v>76</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
@@ -3346,7 +3312,7 @@
         <v>77</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
@@ -3354,7 +3320,7 @@
         <v>78</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
@@ -3362,7 +3328,7 @@
         <v>79</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
@@ -3370,7 +3336,7 @@
         <v>80</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
@@ -3378,7 +3344,7 @@
         <v>81</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
@@ -3386,7 +3352,7 @@
         <v>82</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
@@ -3394,7 +3360,7 @@
         <v>83</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
@@ -3402,7 +3368,7 @@
         <v>84</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
@@ -3410,7 +3376,7 @@
         <v>85</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
@@ -3418,7 +3384,7 @@
         <v>86</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
@@ -3426,7 +3392,7 @@
         <v>87</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
@@ -3434,7 +3400,7 @@
         <v>88</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
@@ -3442,7 +3408,7 @@
         <v>89</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
@@ -3450,7 +3416,7 @@
         <v>90</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
@@ -3458,7 +3424,7 @@
         <v>91</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
@@ -3466,7 +3432,7 @@
         <v>92</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
@@ -3474,7 +3440,7 @@
         <v>93</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
@@ -3482,7 +3448,7 @@
         <v>94</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
@@ -3490,7 +3456,7 @@
         <v>95</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
@@ -3498,7 +3464,7 @@
         <v>96</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
@@ -3506,7 +3472,7 @@
         <v>97</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
@@ -3514,7 +3480,7 @@
         <v>98</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
@@ -3522,7 +3488,7 @@
         <v>99</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
@@ -3530,7 +3496,7 @@
         <v>100</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
@@ -3538,7 +3504,7 @@
         <v>101</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
@@ -3546,7 +3512,7 @@
         <v>102</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
@@ -3554,7 +3520,7 @@
         <v>103</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
@@ -3562,7 +3528,7 @@
         <v>104</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
@@ -3570,7 +3536,7 @@
         <v>105</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
@@ -3578,7 +3544,7 @@
         <v>106</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
@@ -3586,7 +3552,7 @@
         <v>107</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
@@ -3594,7 +3560,7 @@
         <v>108</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
@@ -3602,7 +3568,7 @@
         <v>109</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
@@ -3610,7 +3576,7 @@
         <v>110</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
@@ -3618,7 +3584,7 @@
         <v>111</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
@@ -3626,7 +3592,7 @@
         <v>112</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
@@ -3634,7 +3600,7 @@
         <v>113</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
@@ -3642,7 +3608,7 @@
         <v>114</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
@@ -3650,7 +3616,7 @@
         <v>115</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
@@ -3658,7 +3624,7 @@
         <v>116</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
@@ -3666,7 +3632,7 @@
         <v>117</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
@@ -3674,7 +3640,7 @@
         <v>118</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
@@ -3682,7 +3648,7 @@
         <v>119</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
@@ -3690,7 +3656,7 @@
         <v>120</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
@@ -3698,7 +3664,7 @@
         <v>121</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
@@ -3706,7 +3672,7 @@
         <v>122</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
@@ -3714,7 +3680,7 @@
         <v>123</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
@@ -3722,7 +3688,7 @@
         <v>124</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
@@ -3730,7 +3696,7 @@
         <v>125</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
@@ -3738,7 +3704,7 @@
         <v>126</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
@@ -3746,7 +3712,7 @@
         <v>127</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
@@ -3754,7 +3720,7 @@
         <v>128</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
@@ -3762,7 +3728,7 @@
         <v>129</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
@@ -3770,7 +3736,7 @@
         <v>130</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
@@ -3778,7 +3744,7 @@
         <v>131</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
@@ -3786,7 +3752,7 @@
         <v>132</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
@@ -3794,7 +3760,7 @@
         <v>133</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
@@ -3802,7 +3768,7 @@
         <v>134</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
@@ -3810,7 +3776,7 @@
         <v>135</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
@@ -3818,7 +3784,7 @@
         <v>136</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
@@ -3826,7 +3792,7 @@
         <v>137</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
@@ -3834,7 +3800,7 @@
         <v>138</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
@@ -3842,7 +3808,7 @@
         <v>139</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
@@ -3850,7 +3816,7 @@
         <v>140</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
@@ -3858,7 +3824,7 @@
         <v>141</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
@@ -3866,7 +3832,7 @@
         <v>142</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
@@ -3874,7 +3840,7 @@
         <v>143</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
@@ -3882,7 +3848,7 @@
         <v>144</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
@@ -3890,7 +3856,7 @@
         <v>145</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
@@ -3898,7 +3864,7 @@
         <v>146</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
@@ -3906,7 +3872,7 @@
         <v>147</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
@@ -3914,7 +3880,7 @@
         <v>148</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
@@ -3922,7 +3888,7 @@
         <v>149</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
@@ -3930,7 +3896,7 @@
         <v>150</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
@@ -3938,7 +3904,7 @@
         <v>151</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
@@ -3946,7 +3912,7 @@
         <v>152</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
@@ -3954,7 +3920,7 @@
         <v>153</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
@@ -3962,7 +3928,7 @@
         <v>154</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
@@ -3970,7 +3936,7 @@
         <v>155</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
@@ -3978,7 +3944,7 @@
         <v>156</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
@@ -3986,7 +3952,7 @@
         <v>157</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
@@ -3994,7 +3960,7 @@
         <v>158</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
@@ -4002,7 +3968,7 @@
         <v>159</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
@@ -4010,7 +3976,7 @@
         <v>160</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
@@ -4018,7 +3984,7 @@
         <v>161</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
@@ -4026,7 +3992,7 @@
         <v>162</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
@@ -4034,7 +4000,7 @@
         <v>163</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
@@ -4042,7 +4008,7 @@
         <v>164</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
@@ -4050,7 +4016,7 @@
         <v>165</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
@@ -4058,7 +4024,7 @@
         <v>166</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
@@ -4066,7 +4032,7 @@
         <v>167</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
@@ -4074,7 +4040,7 @@
         <v>168</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
@@ -4082,7 +4048,7 @@
         <v>169</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
@@ -4090,7 +4056,7 @@
         <v>170</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
@@ -4098,7 +4064,7 @@
         <v>171</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
@@ -4106,7 +4072,7 @@
         <v>172</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
@@ -4114,7 +4080,7 @@
         <v>173</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
@@ -4122,7 +4088,7 @@
         <v>174</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
@@ -4130,7 +4096,7 @@
         <v>175</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
@@ -4138,7 +4104,7 @@
         <v>176</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
@@ -4146,7 +4112,7 @@
         <v>177</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
@@ -4154,7 +4120,7 @@
         <v>178</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
@@ -4162,7 +4128,7 @@
         <v>179</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
@@ -4170,7 +4136,7 @@
         <v>180</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
@@ -4178,7 +4144,7 @@
         <v>181</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
@@ -4186,7 +4152,7 @@
         <v>182</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
@@ -4194,7 +4160,7 @@
         <v>183</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
@@ -4202,7 +4168,7 @@
         <v>184</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
@@ -4210,7 +4176,7 @@
         <v>185</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
@@ -4218,7 +4184,7 @@
         <v>186</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
@@ -4226,7 +4192,7 @@
         <v>187</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
@@ -4234,7 +4200,7 @@
         <v>188</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
@@ -4242,7 +4208,7 @@
         <v>189</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
@@ -4250,7 +4216,7 @@
         <v>190</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
@@ -4258,7 +4224,7 @@
         <v>191</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
@@ -4266,7 +4232,7 @@
         <v>192</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
@@ -4274,7 +4240,7 @@
         <v>193</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
@@ -4282,7 +4248,7 @@
         <v>194</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
@@ -4290,7 +4256,7 @@
         <v>195</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
@@ -4298,7 +4264,7 @@
         <v>196</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
@@ -4306,7 +4272,7 @@
         <v>197</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
@@ -4314,7 +4280,7 @@
         <v>198</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
@@ -4322,7 +4288,7 @@
         <v>199</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
@@ -4330,7 +4296,7 @@
         <v>200</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
@@ -4338,7 +4304,7 @@
         <v>201</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
@@ -4346,7 +4312,7 @@
         <v>202</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
@@ -4354,7 +4320,7 @@
         <v>203</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
@@ -4362,7 +4328,7 @@
         <v>204</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
@@ -4370,7 +4336,7 @@
         <v>205</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
@@ -4378,7 +4344,7 @@
         <v>206</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
@@ -4386,7 +4352,7 @@
         <v>207</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
@@ -4394,7 +4360,7 @@
         <v>208</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
@@ -4402,7 +4368,7 @@
         <v>209</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
@@ -4410,7 +4376,7 @@
         <v>210</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
@@ -4418,7 +4384,7 @@
         <v>211</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
@@ -4426,7 +4392,7 @@
         <v>212</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
@@ -4434,7 +4400,7 @@
         <v>213</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
@@ -4442,7 +4408,7 @@
         <v>214</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
@@ -4450,7 +4416,7 @@
         <v>215</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
@@ -4458,7 +4424,7 @@
         <v>216</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
@@ -4466,7 +4432,7 @@
         <v>217</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
@@ -4474,7 +4440,7 @@
         <v>218</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
@@ -4482,7 +4448,7 @@
         <v>219</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
@@ -4490,7 +4456,7 @@
         <v>220</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
@@ -4498,7 +4464,7 @@
         <v>221</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
@@ -4506,7 +4472,7 @@
         <v>222</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
@@ -4514,7 +4480,7 @@
         <v>223</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
@@ -4522,7 +4488,7 @@
         <v>224</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
@@ -4530,7 +4496,7 @@
         <v>225</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
@@ -4538,7 +4504,7 @@
         <v>226</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
@@ -4546,7 +4512,7 @@
         <v>227</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
@@ -4554,7 +4520,7 @@
         <v>228</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
@@ -4562,7 +4528,7 @@
         <v>229</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
@@ -4570,7 +4536,7 @@
         <v>230</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
@@ -4578,7 +4544,7 @@
         <v>231</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
@@ -4586,7 +4552,7 @@
         <v>232</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
@@ -4594,7 +4560,7 @@
         <v>233</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
@@ -4602,7 +4568,7 @@
         <v>234</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
@@ -4610,7 +4576,7 @@
         <v>235</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
@@ -4618,7 +4584,7 @@
         <v>236</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
@@ -4626,7 +4592,7 @@
         <v>237</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
@@ -4634,7 +4600,7 @@
         <v>238</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
@@ -4642,7 +4608,7 @@
         <v>239</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
@@ -4650,7 +4616,7 @@
         <v>240</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
@@ -4658,7 +4624,7 @@
         <v>241</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.3">
@@ -4666,7 +4632,7 @@
         <v>242</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.3">
@@ -4674,7 +4640,7 @@
         <v>243</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.3">
@@ -4682,7 +4648,7 @@
         <v>244</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.3">
@@ -4690,7 +4656,7 @@
         <v>245</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.3">
@@ -4698,7 +4664,7 @@
         <v>246</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.3">
@@ -4706,7 +4672,7 @@
         <v>247</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.3">
@@ -4714,7 +4680,7 @@
         <v>248</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.3">
@@ -4722,7 +4688,7 @@
         <v>249</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.3">
@@ -4730,7 +4696,7 @@
         <v>250</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.3">
@@ -4738,7 +4704,7 @@
         <v>251</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.3">
@@ -4746,7 +4712,7 @@
         <v>252</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.3">
@@ -4754,7 +4720,7 @@
         <v>253</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
@@ -4762,7 +4728,7 @@
         <v>254</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
@@ -4770,7 +4736,7 @@
         <v>255</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
@@ -4778,7 +4744,7 @@
         <v>256</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
@@ -4786,7 +4752,7 @@
         <v>257</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
@@ -4794,7 +4760,7 @@
         <v>258</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.3">
@@ -4802,7 +4768,7 @@
         <v>259</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
@@ -4810,7 +4776,7 @@
         <v>260</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
@@ -4818,7 +4784,7 @@
         <v>261</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
@@ -4826,7 +4792,7 @@
         <v>262</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
@@ -4834,7 +4800,7 @@
         <v>263</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
@@ -4842,7 +4808,7 @@
         <v>264</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
@@ -4850,7 +4816,7 @@
         <v>265</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.3">
@@ -4858,7 +4824,7 @@
         <v>266</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.3">
@@ -4866,7 +4832,7 @@
         <v>267</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
@@ -4874,7 +4840,7 @@
         <v>268</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
@@ -4882,7 +4848,7 @@
         <v>269</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.3">
@@ -4890,7 +4856,7 @@
         <v>270</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.3">
@@ -4898,7 +4864,7 @@
         <v>271</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.3">
@@ -4906,7 +4872,7 @@
         <v>272</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.3">
@@ -4914,7 +4880,7 @@
         <v>273</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.3">
@@ -4922,7 +4888,7 @@
         <v>274</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.3">
@@ -4930,7 +4896,7 @@
         <v>275</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.3">
@@ -4938,7 +4904,7 @@
         <v>276</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.3">
@@ -4946,7 +4912,7 @@
         <v>277</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.3">
@@ -4954,7 +4920,7 @@
         <v>278</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.3">
@@ -4962,7 +4928,7 @@
         <v>279</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.3">
@@ -4970,7 +4936,7 @@
         <v>280</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.3">
@@ -4978,7 +4944,7 @@
         <v>281</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.3">
@@ -4986,7 +4952,7 @@
         <v>282</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.3">
@@ -4994,7 +4960,7 @@
         <v>283</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.3">
@@ -5002,7 +4968,7 @@
         <v>284</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.3">
@@ -5010,7 +4976,7 @@
         <v>285</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.3">
@@ -5018,7 +4984,7 @@
         <v>286</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.3">
@@ -5026,7 +4992,7 @@
         <v>287</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.3">
@@ -5034,7 +5000,7 @@
         <v>288</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.3">
@@ -5042,7 +5008,7 @@
         <v>289</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.3">
@@ -5050,7 +5016,7 @@
         <v>290</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.3">
@@ -5058,7 +5024,7 @@
         <v>291</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.3">
@@ -5066,7 +5032,7 @@
         <v>292</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.3">
@@ -5074,7 +5040,7 @@
         <v>293</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
@@ -5082,7 +5048,7 @@
         <v>294</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.3">
@@ -5090,7 +5056,7 @@
         <v>295</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.3">
@@ -5098,7 +5064,7 @@
         <v>296</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.3">
@@ -5106,7 +5072,7 @@
         <v>297</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.3">
@@ -5114,7 +5080,7 @@
         <v>298</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.3">
@@ -5122,7 +5088,7 @@
         <v>299</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.3">
@@ -5130,7 +5096,7 @@
         <v>300</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.3">
@@ -5138,7 +5104,7 @@
         <v>301</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.3">
@@ -5146,7 +5112,7 @@
         <v>302</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.3">
@@ -5154,7 +5120,7 @@
         <v>303</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.3">
@@ -5162,7 +5128,7 @@
         <v>304</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.3">
@@ -5170,7 +5136,7 @@
         <v>305</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.3">
@@ -5178,7 +5144,7 @@
         <v>306</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.3">
@@ -5186,7 +5152,7 @@
         <v>307</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.3">
@@ -5194,7 +5160,7 @@
         <v>308</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.3">
@@ -5202,7 +5168,7 @@
         <v>309</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.3">
@@ -5210,7 +5176,7 @@
         <v>310</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.3">
@@ -5218,7 +5184,7 @@
         <v>311</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.3">
@@ -5226,7 +5192,7 @@
         <v>312</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.3">
@@ -5234,7 +5200,7 @@
         <v>313</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.3">
@@ -5242,7 +5208,7 @@
         <v>314</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.3">
@@ -5250,7 +5216,7 @@
         <v>315</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.3">
@@ -5258,7 +5224,7 @@
         <v>316</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.3">
@@ -5266,7 +5232,7 @@
         <v>317</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.3">
@@ -5274,7 +5240,7 @@
         <v>318</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.3">
@@ -5282,7 +5248,7 @@
         <v>319</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.3">
@@ -5290,7 +5256,7 @@
         <v>320</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.3">
@@ -5298,7 +5264,7 @@
         <v>321</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.3">
@@ -5306,7 +5272,7 @@
         <v>322</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.3">
@@ -5314,7 +5280,7 @@
         <v>323</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.3">
@@ -5322,7 +5288,7 @@
         <v>324</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.3">
@@ -5330,7 +5296,7 @@
         <v>325</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.3">
@@ -5338,7 +5304,7 @@
         <v>326</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.3">
@@ -5346,7 +5312,7 @@
         <v>327</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.3">
@@ -5354,7 +5320,7 @@
         <v>328</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.3">
@@ -5362,7 +5328,7 @@
         <v>329</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.3">
@@ -5370,7 +5336,7 @@
         <v>330</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.3">
@@ -5378,7 +5344,7 @@
         <v>331</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.3">
@@ -5386,7 +5352,7 @@
         <v>332</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.3">
@@ -5394,7 +5360,7 @@
         <v>333</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.3">
@@ -5402,7 +5368,7 @@
         <v>334</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.3">
@@ -5410,7 +5376,7 @@
         <v>335</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.3">
@@ -5418,7 +5384,7 @@
         <v>336</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.3">
@@ -5426,7 +5392,7 @@
         <v>337</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.3">
@@ -5434,7 +5400,7 @@
         <v>338</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.3">
@@ -5442,7 +5408,7 @@
         <v>339</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.3">
@@ -5450,7 +5416,7 @@
         <v>340</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
   </sheetData>
@@ -5477,7 +5443,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
@@ -5485,7 +5451,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
@@ -5493,7 +5459,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
@@ -5501,7 +5467,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
@@ -5509,7 +5475,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
@@ -5517,7 +5483,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.3">
@@ -5525,7 +5491,7 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
@@ -5533,7 +5499,7 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
@@ -5541,7 +5507,7 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
@@ -5549,7 +5515,7 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
@@ -5557,7 +5523,7 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.3">
@@ -5565,7 +5531,7 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.3">
@@ -5573,7 +5539,7 @@
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.3">
@@ -5581,7 +5547,7 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.3">
@@ -5589,7 +5555,7 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
@@ -5597,7 +5563,7 @@
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
@@ -5605,7 +5571,7 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
@@ -5613,7 +5579,7 @@
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
@@ -5621,7 +5587,7 @@
         <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.3">
@@ -5629,7 +5595,7 @@
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.3">
@@ -5637,7 +5603,7 @@
         <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.3">
@@ -5645,7 +5611,7 @@
         <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.3">
@@ -5653,7 +5619,7 @@
         <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.3">
@@ -5661,7 +5627,7 @@
         <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.3">
@@ -5669,7 +5635,7 @@
         <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.3">
@@ -5677,7 +5643,7 @@
         <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.3">
@@ -5685,7 +5651,7 @@
         <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/Framework_DX11/Client/Bin/DataFiles/Item_Initialize_Data.xlsx
+++ b/Framework_DX11/Client/Bin/DataFiles/Item_Initialize_Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeamProject\Bulid\NewBulid_11_27\Dx11_LiesOfP\Framework_DX11\Client\Bin\DataFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeamProject\Bulid\NewBulid_12_02\Dx11_LiesOfP\Framework_DX11\Client\Bin\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7D2C5A3-F9C7-49ED-B1C0-F37D49DF1661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDF399DF-61C4-4FBA-9CF9-4D72A628C188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1616,10 +1616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D71"/>
+  <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L45" sqref="L45"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1779,7 +1779,7 @@
         <v>275</v>
       </c>
       <c r="D11" s="6">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -1794,7 +1794,7 @@
         <v>276</v>
       </c>
       <c r="D12" s="6">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -1809,7 +1809,7 @@
         <v>277</v>
       </c>
       <c r="D13" s="6">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -1824,7 +1824,7 @@
         <v>284</v>
       </c>
       <c r="D14" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -1839,7 +1839,7 @@
         <v>246</v>
       </c>
       <c r="D15" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -1854,7 +1854,7 @@
         <v>247</v>
       </c>
       <c r="D16" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -1869,7 +1869,7 @@
         <v>248</v>
       </c>
       <c r="D17" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -1884,7 +1884,7 @@
         <v>245</v>
       </c>
       <c r="D18" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -2094,7 +2094,7 @@
         <v>238</v>
       </c>
       <c r="D32" s="6">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -2124,7 +2124,7 @@
         <v>272</v>
       </c>
       <c r="D34" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -2289,7 +2289,7 @@
         <v>255</v>
       </c>
       <c r="D45" s="6">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -2304,7 +2304,7 @@
         <v>256</v>
       </c>
       <c r="D46" s="6">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -2319,7 +2319,7 @@
         <v>266</v>
       </c>
       <c r="D47" s="6">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -2334,7 +2334,7 @@
         <v>267</v>
       </c>
       <c r="D48" s="6">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -2349,60 +2349,63 @@
         <v>279</v>
       </c>
       <c r="D49" s="6">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>0</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C50" s="3">
-        <v>8</v>
-      </c>
-      <c r="D50" s="3">
-        <v>0</v>
+        <v>47</v>
+      </c>
+      <c r="B50" s="6" t="str">
+        <f>VLOOKUP(C50,Sheet2!$A:$B,2)</f>
+        <v>공방연합 강화 프레임</v>
+      </c>
+      <c r="C50" s="6">
+        <v>123</v>
+      </c>
+      <c r="D50" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>2</v>
-      </c>
-      <c r="B51" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B51" s="6" t="str">
+        <f>VLOOKUP(C51,Sheet2!$A:$B,2)</f>
+        <v>라다 F150 프레임</v>
+      </c>
+      <c r="C51" s="6">
+        <v>130</v>
+      </c>
+      <c r="D51" s="6">
         <v>1</v>
-      </c>
-      <c r="C51" s="3">
-        <v>10</v>
-      </c>
-      <c r="D51" s="3">
-        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>4</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C52" s="3">
-        <v>14</v>
-      </c>
-      <c r="D52" s="3">
-        <v>0</v>
+        <v>49</v>
+      </c>
+      <c r="B52" s="6" t="str">
+        <f>VLOOKUP(C52,Sheet2!$A:$B,2)</f>
+        <v>아크 중량 프레임</v>
+      </c>
+      <c r="C52" s="6">
+        <v>139</v>
+      </c>
+      <c r="D52" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C53" s="3">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D53" s="3">
         <v>0</v>
@@ -2410,27 +2413,27 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C54" s="3">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D54" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C55" s="3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D55" s="3">
         <v>0</v>
@@ -2438,13 +2441,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C56" s="3">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D56" s="3">
         <v>0</v>
@@ -2452,27 +2455,27 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C57" s="3">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C58" s="3">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D58" s="3">
         <v>0</v>
@@ -2480,13 +2483,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C59" s="3">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D59" s="3">
         <v>0</v>
@@ -2494,13 +2497,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C60" s="3">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D60" s="3">
         <v>0</v>
@@ -2508,24 +2511,24 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C61" s="3">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D61" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C62" s="3">
         <v>0</v>
@@ -2536,55 +2539,55 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C63" s="3">
         <v>1</v>
       </c>
       <c r="D63" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C64" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D64" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C65" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D65" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C66" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D66" s="3">
         <v>1</v>
@@ -2592,13 +2595,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C67" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D67" s="3">
         <v>2</v>
@@ -2606,57 +2609,99 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C68" s="3">
         <v>2</v>
       </c>
       <c r="D68" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C69" s="3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D69" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C70" s="3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D70" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71">
+        <v>20</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C71" s="3">
+        <v>2</v>
+      </c>
+      <c r="D71" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>21</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C72" s="3">
+        <v>-1</v>
+      </c>
+      <c r="D72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>22</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C73" s="3">
+        <v>-1</v>
+      </c>
+      <c r="D73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74">
         <v>23</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B74" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C71" s="3">
+      <c r="C74" s="3">
         <v>-1</v>
       </c>
-      <c r="D71" s="3">
+      <c r="D74" s="3">
         <v>0</v>
       </c>
     </row>

--- a/Framework_DX11/Client/Bin/DataFiles/Item_Initialize_Data.xlsx
+++ b/Framework_DX11/Client/Bin/DataFiles/Item_Initialize_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeamProject\Bulid\NewBulid_12_02\Dx11_LiesOfP\Framework_DX11\Client\Bin\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDF399DF-61C4-4FBA-9CF9-4D72A628C188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{55312AA1-899F-42AA-958A-3518FF306509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32760" yWindow="300" windowWidth="17730" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Item_Initialize_Data" sheetId="1" r:id="rId1"/>
@@ -1618,8 +1618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2148,10 +2148,10 @@
       </c>
       <c r="B36" s="6" t="str">
         <f>VLOOKUP(C36,Sheet2!$A:$B,2)</f>
-        <v>기교의 아뮬렛</v>
+        <v>도약의 아뮬렛</v>
       </c>
       <c r="C36" s="6">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D36" s="6">
         <v>1</v>
@@ -2163,10 +2163,10 @@
       </c>
       <c r="B37" s="6" t="str">
         <f>VLOOKUP(C37,Sheet2!$A:$B,2)</f>
-        <v>깨어나는 신의 아뮬렛</v>
+        <v>생명의 아뮬렛</v>
       </c>
       <c r="C37" s="6">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="D37" s="6">
         <v>1</v>
@@ -2178,10 +2178,10 @@
       </c>
       <c r="B38" s="6" t="str">
         <f>VLOOKUP(C38,Sheet2!$A:$B,2)</f>
-        <v>도약의 아뮬렛</v>
+        <v>재충전의 아뮬렛</v>
       </c>
       <c r="C38" s="6">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="D38" s="6">
         <v>1</v>
@@ -2193,10 +2193,10 @@
       </c>
       <c r="B39" s="6" t="str">
         <f>VLOOKUP(C39,Sheet2!$A:$B,2)</f>
-        <v>베테랑의 아뮬렛</v>
+        <v>꿰뚫는 증오의 아뮬렛</v>
       </c>
       <c r="C39" s="6">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D39" s="6">
         <v>1</v>
@@ -2208,10 +2208,10 @@
       </c>
       <c r="B40" s="6" t="str">
         <f>VLOOKUP(C40,Sheet2!$A:$B,2)</f>
-        <v>변화의 아뮬렛</v>
+        <v>철벽의 아뮬렛</v>
       </c>
       <c r="C40" s="6">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="D40" s="6">
         <v>1</v>

--- a/Framework_DX11/Client/Bin/DataFiles/Item_Initialize_Data.xlsx
+++ b/Framework_DX11/Client/Bin/DataFiles/Item_Initialize_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeamProject\Bulid\NewBulid_12_02\Dx11_LiesOfP\Framework_DX11\Client\Bin\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{55312AA1-899F-42AA-958A-3518FF306509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{6250AEE9-CE4A-4431-A790-027CDC82510A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32760" yWindow="300" windowWidth="17730" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Item_Initialize_Data" sheetId="1" r:id="rId1"/>
@@ -1616,10 +1616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D74"/>
+  <dimension ref="A1:D76"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I46" sqref="I46"/>
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2223,10 +2223,10 @@
       </c>
       <c r="B41" s="6" t="str">
         <f>VLOOKUP(C41,Sheet2!$A:$B,2)</f>
-        <v>퍼펫 스트링</v>
+        <v>베테랑의 아뮬렛</v>
       </c>
       <c r="C41" s="6">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="D41" s="6">
         <v>1</v>
@@ -2238,10 +2238,10 @@
       </c>
       <c r="B42" s="6" t="str">
         <f>VLOOKUP(C42,Sheet2!$A:$B,2)</f>
-        <v>펄미니스</v>
+        <v>불굴의 아뮬렛</v>
       </c>
       <c r="C42" s="6">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="D42" s="6">
         <v>1</v>
@@ -2253,13 +2253,13 @@
       </c>
       <c r="B43" s="6" t="str">
         <f>VLOOKUP(C43,Sheet2!$A:$B,2)</f>
-        <v>쿼츠</v>
+        <v>퍼펫 스트링</v>
       </c>
       <c r="C43" s="6">
-        <v>332</v>
+        <v>76</v>
       </c>
       <c r="D43" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -2268,10 +2268,10 @@
       </c>
       <c r="B44" s="6" t="str">
         <f>VLOOKUP(C44,Sheet2!$A:$B,2)</f>
-        <v>모나드의 등불</v>
+        <v>펄미니스</v>
       </c>
       <c r="C44" s="6">
-        <v>243</v>
+        <v>77</v>
       </c>
       <c r="D44" s="6">
         <v>1</v>
@@ -2283,13 +2283,13 @@
       </c>
       <c r="B45" s="6" t="str">
         <f>VLOOKUP(C45,Sheet2!$A:$B,2)</f>
-        <v>속성 저항 앰플</v>
+        <v>쿼츠</v>
       </c>
       <c r="C45" s="6">
-        <v>255</v>
+        <v>332</v>
       </c>
       <c r="D45" s="6">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -2298,13 +2298,13 @@
       </c>
       <c r="B46" s="6" t="str">
         <f>VLOOKUP(C46,Sheet2!$A:$B,2)</f>
-        <v>속성 정화 앰플</v>
+        <v>모나드의 등불</v>
       </c>
       <c r="C46" s="6">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="D46" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -2313,10 +2313,10 @@
       </c>
       <c r="B47" s="6" t="str">
         <f>VLOOKUP(C47,Sheet2!$A:$B,2)</f>
-        <v>제미니의 긴급 보호</v>
+        <v>속성 저항 앰플</v>
       </c>
       <c r="C47" s="6">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="D47" s="6">
         <v>10</v>
@@ -2328,10 +2328,10 @@
       </c>
       <c r="B48" s="6" t="str">
         <f>VLOOKUP(C48,Sheet2!$A:$B,2)</f>
-        <v>제미니의 철벽 수호</v>
+        <v>속성 정화 앰플</v>
       </c>
       <c r="C48" s="6">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="D48" s="6">
         <v>10</v>
@@ -2343,10 +2343,10 @@
       </c>
       <c r="B49" s="6" t="str">
         <f>VLOOKUP(C49,Sheet2!$A:$B,2)</f>
-        <v>투척용 전지</v>
+        <v>제미니의 긴급 보호</v>
       </c>
       <c r="C49" s="6">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="D49" s="6">
         <v>10</v>
@@ -2358,13 +2358,13 @@
       </c>
       <c r="B50" s="6" t="str">
         <f>VLOOKUP(C50,Sheet2!$A:$B,2)</f>
-        <v>공방연합 강화 프레임</v>
+        <v>제미니의 철벽 수호</v>
       </c>
       <c r="C50" s="6">
-        <v>123</v>
+        <v>267</v>
       </c>
       <c r="D50" s="6">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -2373,13 +2373,13 @@
       </c>
       <c r="B51" s="6" t="str">
         <f>VLOOKUP(C51,Sheet2!$A:$B,2)</f>
-        <v>라다 F150 프레임</v>
+        <v>투척용 전지</v>
       </c>
       <c r="C51" s="6">
-        <v>130</v>
+        <v>279</v>
       </c>
       <c r="D51" s="6">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -2388,10 +2388,10 @@
       </c>
       <c r="B52" s="6" t="str">
         <f>VLOOKUP(C52,Sheet2!$A:$B,2)</f>
-        <v>아크 중량 프레임</v>
+        <v>공방연합 강화 프레임</v>
       </c>
       <c r="C52" s="6">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="D52" s="6">
         <v>1</v>
@@ -2399,41 +2399,43 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>0</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C53" s="3">
-        <v>8</v>
-      </c>
-      <c r="D53" s="3">
-        <v>0</v>
+        <v>50</v>
+      </c>
+      <c r="B53" s="6" t="str">
+        <f>VLOOKUP(C53,Sheet2!$A:$B,2)</f>
+        <v>라다 F150 프레임</v>
+      </c>
+      <c r="C53" s="6">
+        <v>130</v>
+      </c>
+      <c r="D53" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>2</v>
-      </c>
-      <c r="B54" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B54" s="6" t="str">
+        <f>VLOOKUP(C54,Sheet2!$A:$B,2)</f>
+        <v>아크 중량 프레임</v>
+      </c>
+      <c r="C54" s="6">
+        <v>139</v>
+      </c>
+      <c r="D54" s="6">
         <v>1</v>
-      </c>
-      <c r="C54" s="3">
-        <v>10</v>
-      </c>
-      <c r="D54" s="3">
-        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C55" s="3">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D55" s="3">
         <v>0</v>
@@ -2441,13 +2443,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C56" s="3">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D56" s="3">
         <v>0</v>
@@ -2455,27 +2457,27 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C57" s="3">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D57" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C58" s="3">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D58" s="3">
         <v>0</v>
@@ -2483,27 +2485,27 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C59" s="3">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C60" s="3">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D60" s="3">
         <v>0</v>
@@ -2511,13 +2513,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C61" s="3">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D61" s="3">
         <v>0</v>
@@ -2525,13 +2527,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C62" s="3">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D62" s="3">
         <v>0</v>
@@ -2539,13 +2541,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C63" s="3">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D63" s="3">
         <v>0</v>
@@ -2553,155 +2555,183 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C64" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D64" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C65" s="3">
+        <v>1</v>
+      </c>
+      <c r="D65" s="3">
         <v>0</v>
-      </c>
-      <c r="D65" s="3">
-        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C66" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D66" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C67" s="3">
+        <v>0</v>
+      </c>
+      <c r="D67" s="3">
         <v>1</v>
-      </c>
-      <c r="D67" s="3">
-        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C68" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D68" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C69" s="3">
+        <v>1</v>
+      </c>
+      <c r="D69" s="3">
         <v>2</v>
-      </c>
-      <c r="D69" s="3">
-        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C70" s="3">
         <v>2</v>
       </c>
       <c r="D70" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C71" s="3">
         <v>2</v>
       </c>
       <c r="D71" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C72" s="3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D72" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C73" s="3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D73" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C74" s="3">
         <v>-1</v>
       </c>
       <c r="D74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>22</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C75" s="3">
+        <v>-1</v>
+      </c>
+      <c r="D75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>23</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C76" s="3">
+        <v>-1</v>
+      </c>
+      <c r="D76" s="3">
         <v>0</v>
       </c>
     </row>

--- a/Framework_DX11/Client/Bin/DataFiles/Item_Initialize_Data.xlsx
+++ b/Framework_DX11/Client/Bin/DataFiles/Item_Initialize_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeamProject\Bulid\NewBulid_12_02\Dx11_LiesOfP\Framework_DX11\Client\Bin\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{6250AEE9-CE4A-4431-A790-027CDC82510A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C8DFDED-35FC-4FB4-ABEE-0400CE81EE8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="388">
   <si>
     <t xml:space="preserve">	EQUIP_WEAPON_BLADE_0</t>
   </si>
@@ -47,24 +47,6 @@
   </si>
   <si>
     <t xml:space="preserve">	EQUIP_RESION_ARM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	EQUIP_AMULET_0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	EQUIP_AMULET_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	EQUIP_DEFENCE_FRAME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	EQUIP_DEFENCE_CONVERTOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	EQUIP_DEFENCE_CARTRIGE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	EQUIP_DEFENCE_RAINER</t>
   </si>
   <si>
     <t xml:space="preserve">	EQUIP_USING_TOP_0</t>
@@ -1616,10 +1598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D76"/>
+  <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1629,22 +1611,22 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -2471,13 +2453,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C58" s="3">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D58" s="3">
         <v>0</v>
@@ -2485,83 +2467,83 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C59" s="3">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="D59" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C60" s="3">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D60" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C61" s="3">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C62" s="3">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C63" s="3">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D63" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C64" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D64" s="3">
         <v>0</v>
@@ -2569,21 +2551,21 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C65" s="3">
+        <v>2</v>
+      </c>
+      <c r="D65" s="3">
         <v>1</v>
-      </c>
-      <c r="D65" s="3">
-        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>11</v>
@@ -2592,146 +2574,62 @@
         <v>2</v>
       </c>
       <c r="D66" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C67" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D67" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C68" s="3">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D68" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C69" s="3">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D69" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C70" s="3">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D70" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71">
-        <v>18</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C71" s="3">
-        <v>2</v>
-      </c>
-      <c r="D71" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72">
-        <v>19</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C72" s="3">
-        <v>2</v>
-      </c>
-      <c r="D72" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73">
-        <v>20</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C73" s="3">
-        <v>2</v>
-      </c>
-      <c r="D73" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74">
-        <v>21</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C74" s="3">
-        <v>-1</v>
-      </c>
-      <c r="D74" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75">
-        <v>22</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C75" s="3">
-        <v>-1</v>
-      </c>
-      <c r="D75" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76">
-        <v>23</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C76" s="3">
-        <v>-1</v>
-      </c>
-      <c r="D76" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2760,10 +2658,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -2771,7 +2669,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -2779,7 +2677,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -2787,7 +2685,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -2795,7 +2693,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -2803,7 +2701,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -2811,7 +2709,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -2819,7 +2717,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -2827,7 +2725,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -2835,7 +2733,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -2843,7 +2741,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -2851,7 +2749,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -2859,7 +2757,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -2867,7 +2765,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -2875,7 +2773,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -2883,7 +2781,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -2891,7 +2789,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -2899,7 +2797,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -2907,7 +2805,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -2915,7 +2813,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -2923,7 +2821,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -2931,7 +2829,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -2939,7 +2837,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -2947,7 +2845,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -2955,7 +2853,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -2963,7 +2861,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -2971,7 +2869,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -2979,7 +2877,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -2987,7 +2885,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -2995,7 +2893,7 @@
         <v>28</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -3003,7 +2901,7 @@
         <v>29</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -3011,7 +2909,7 @@
         <v>30</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -3019,7 +2917,7 @@
         <v>31</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -3027,7 +2925,7 @@
         <v>32</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -3035,7 +2933,7 @@
         <v>33</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -3043,7 +2941,7 @@
         <v>34</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -3051,7 +2949,7 @@
         <v>35</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -3059,7 +2957,7 @@
         <v>36</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -3067,7 +2965,7 @@
         <v>37</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -3075,7 +2973,7 @@
         <v>38</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -3083,7 +2981,7 @@
         <v>39</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -3091,7 +2989,7 @@
         <v>40</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -3099,7 +2997,7 @@
         <v>41</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -3107,7 +3005,7 @@
         <v>42</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -3115,7 +3013,7 @@
         <v>43</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -3123,7 +3021,7 @@
         <v>44</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -3131,7 +3029,7 @@
         <v>45</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -3139,7 +3037,7 @@
         <v>46</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -3147,7 +3045,7 @@
         <v>47</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -3155,7 +3053,7 @@
         <v>48</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -3163,7 +3061,7 @@
         <v>49</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -3171,7 +3069,7 @@
         <v>50</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -3179,7 +3077,7 @@
         <v>51</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -3187,7 +3085,7 @@
         <v>52</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -3195,7 +3093,7 @@
         <v>53</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -3203,7 +3101,7 @@
         <v>54</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -3211,7 +3109,7 @@
         <v>55</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -3219,7 +3117,7 @@
         <v>56</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -3227,7 +3125,7 @@
         <v>57</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
@@ -3235,7 +3133,7 @@
         <v>58</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
@@ -3243,7 +3141,7 @@
         <v>59</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
@@ -3251,7 +3149,7 @@
         <v>60</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
@@ -3259,7 +3157,7 @@
         <v>61</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
@@ -3267,7 +3165,7 @@
         <v>62</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
@@ -3275,7 +3173,7 @@
         <v>63</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
@@ -3283,7 +3181,7 @@
         <v>64</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
@@ -3291,7 +3189,7 @@
         <v>65</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
@@ -3299,7 +3197,7 @@
         <v>66</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
@@ -3307,7 +3205,7 @@
         <v>67</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
@@ -3315,7 +3213,7 @@
         <v>68</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
@@ -3323,7 +3221,7 @@
         <v>69</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
@@ -3331,7 +3229,7 @@
         <v>70</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
@@ -3339,7 +3237,7 @@
         <v>71</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
@@ -3347,7 +3245,7 @@
         <v>72</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
@@ -3355,7 +3253,7 @@
         <v>73</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
@@ -3363,7 +3261,7 @@
         <v>74</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
@@ -3371,7 +3269,7 @@
         <v>75</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
@@ -3379,7 +3277,7 @@
         <v>76</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
@@ -3387,7 +3285,7 @@
         <v>77</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
@@ -3395,7 +3293,7 @@
         <v>78</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
@@ -3403,7 +3301,7 @@
         <v>79</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
@@ -3411,7 +3309,7 @@
         <v>80</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
@@ -3419,7 +3317,7 @@
         <v>81</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
@@ -3427,7 +3325,7 @@
         <v>82</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
@@ -3435,7 +3333,7 @@
         <v>83</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
@@ -3443,7 +3341,7 @@
         <v>84</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
@@ -3451,7 +3349,7 @@
         <v>85</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
@@ -3459,7 +3357,7 @@
         <v>86</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
@@ -3467,7 +3365,7 @@
         <v>87</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
@@ -3475,7 +3373,7 @@
         <v>88</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
@@ -3483,7 +3381,7 @@
         <v>89</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
@@ -3491,7 +3389,7 @@
         <v>90</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
@@ -3499,7 +3397,7 @@
         <v>91</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
@@ -3507,7 +3405,7 @@
         <v>92</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
@@ -3515,7 +3413,7 @@
         <v>93</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
@@ -3523,7 +3421,7 @@
         <v>94</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
@@ -3531,7 +3429,7 @@
         <v>95</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
@@ -3539,7 +3437,7 @@
         <v>96</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
@@ -3547,7 +3445,7 @@
         <v>97</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
@@ -3555,7 +3453,7 @@
         <v>98</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
@@ -3563,7 +3461,7 @@
         <v>99</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
@@ -3571,7 +3469,7 @@
         <v>100</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
@@ -3579,7 +3477,7 @@
         <v>101</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
@@ -3587,7 +3485,7 @@
         <v>102</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
@@ -3595,7 +3493,7 @@
         <v>103</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
@@ -3603,7 +3501,7 @@
         <v>104</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
@@ -3611,7 +3509,7 @@
         <v>105</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
@@ -3619,7 +3517,7 @@
         <v>106</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
@@ -3627,7 +3525,7 @@
         <v>107</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
@@ -3635,7 +3533,7 @@
         <v>108</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
@@ -3643,7 +3541,7 @@
         <v>109</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
@@ -3651,7 +3549,7 @@
         <v>110</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
@@ -3659,7 +3557,7 @@
         <v>111</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
@@ -3667,7 +3565,7 @@
         <v>112</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
@@ -3675,7 +3573,7 @@
         <v>113</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
@@ -3683,7 +3581,7 @@
         <v>114</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
@@ -3691,7 +3589,7 @@
         <v>115</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
@@ -3699,7 +3597,7 @@
         <v>116</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
@@ -3707,7 +3605,7 @@
         <v>117</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
@@ -3715,7 +3613,7 @@
         <v>118</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
@@ -3723,7 +3621,7 @@
         <v>119</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
@@ -3731,7 +3629,7 @@
         <v>120</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
@@ -3739,7 +3637,7 @@
         <v>121</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
@@ -3747,7 +3645,7 @@
         <v>122</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
@@ -3755,7 +3653,7 @@
         <v>123</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
@@ -3763,7 +3661,7 @@
         <v>124</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
@@ -3771,7 +3669,7 @@
         <v>125</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
@@ -3779,7 +3677,7 @@
         <v>126</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
@@ -3787,7 +3685,7 @@
         <v>127</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
@@ -3795,7 +3693,7 @@
         <v>128</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
@@ -3803,7 +3701,7 @@
         <v>129</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
@@ -3811,7 +3709,7 @@
         <v>130</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
@@ -3819,7 +3717,7 @@
         <v>131</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
@@ -3827,7 +3725,7 @@
         <v>132</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
@@ -3835,7 +3733,7 @@
         <v>133</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
@@ -3843,7 +3741,7 @@
         <v>134</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
@@ -3851,7 +3749,7 @@
         <v>135</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
@@ -3859,7 +3757,7 @@
         <v>136</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
@@ -3867,7 +3765,7 @@
         <v>137</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
@@ -3875,7 +3773,7 @@
         <v>138</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
@@ -3883,7 +3781,7 @@
         <v>139</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
@@ -3891,7 +3789,7 @@
         <v>140</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
@@ -3899,7 +3797,7 @@
         <v>141</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
@@ -3907,7 +3805,7 @@
         <v>142</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
@@ -3915,7 +3813,7 @@
         <v>143</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
@@ -3923,7 +3821,7 @@
         <v>144</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
@@ -3931,7 +3829,7 @@
         <v>145</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
@@ -3939,7 +3837,7 @@
         <v>146</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
@@ -3947,7 +3845,7 @@
         <v>147</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
@@ -3955,7 +3853,7 @@
         <v>148</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
@@ -3963,7 +3861,7 @@
         <v>149</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
@@ -3971,7 +3869,7 @@
         <v>150</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
@@ -3979,7 +3877,7 @@
         <v>151</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
@@ -3987,7 +3885,7 @@
         <v>152</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
@@ -3995,7 +3893,7 @@
         <v>153</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
@@ -4003,7 +3901,7 @@
         <v>154</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
@@ -4011,7 +3909,7 @@
         <v>155</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
@@ -4019,7 +3917,7 @@
         <v>156</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
@@ -4027,7 +3925,7 @@
         <v>157</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
@@ -4035,7 +3933,7 @@
         <v>158</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
@@ -4043,7 +3941,7 @@
         <v>159</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
@@ -4051,7 +3949,7 @@
         <v>160</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
@@ -4059,7 +3957,7 @@
         <v>161</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
@@ -4067,7 +3965,7 @@
         <v>162</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
@@ -4075,7 +3973,7 @@
         <v>163</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
@@ -4083,7 +3981,7 @@
         <v>164</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
@@ -4091,7 +3989,7 @@
         <v>165</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
@@ -4099,7 +3997,7 @@
         <v>166</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
@@ -4107,7 +4005,7 @@
         <v>167</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
@@ -4115,7 +4013,7 @@
         <v>168</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
@@ -4123,7 +4021,7 @@
         <v>169</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
@@ -4131,7 +4029,7 @@
         <v>170</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
@@ -4139,7 +4037,7 @@
         <v>171</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
@@ -4147,7 +4045,7 @@
         <v>172</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
@@ -4155,7 +4053,7 @@
         <v>173</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
@@ -4163,7 +4061,7 @@
         <v>174</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
@@ -4171,7 +4069,7 @@
         <v>175</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
@@ -4179,7 +4077,7 @@
         <v>176</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
@@ -4187,7 +4085,7 @@
         <v>177</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
@@ -4195,7 +4093,7 @@
         <v>178</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
@@ -4203,7 +4101,7 @@
         <v>179</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
@@ -4211,7 +4109,7 @@
         <v>180</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
@@ -4219,7 +4117,7 @@
         <v>181</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
@@ -4227,7 +4125,7 @@
         <v>182</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
@@ -4235,7 +4133,7 @@
         <v>183</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
@@ -4243,7 +4141,7 @@
         <v>184</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
@@ -4251,7 +4149,7 @@
         <v>185</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
@@ -4259,7 +4157,7 @@
         <v>186</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
@@ -4267,7 +4165,7 @@
         <v>187</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
@@ -4275,7 +4173,7 @@
         <v>188</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
@@ -4283,7 +4181,7 @@
         <v>189</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
@@ -4291,7 +4189,7 @@
         <v>190</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
@@ -4299,7 +4197,7 @@
         <v>191</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
@@ -4307,7 +4205,7 @@
         <v>192</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
@@ -4315,7 +4213,7 @@
         <v>193</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
@@ -4323,7 +4221,7 @@
         <v>194</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
@@ -4331,7 +4229,7 @@
         <v>195</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
@@ -4339,7 +4237,7 @@
         <v>196</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
@@ -4347,7 +4245,7 @@
         <v>197</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
@@ -4355,7 +4253,7 @@
         <v>198</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
@@ -4363,7 +4261,7 @@
         <v>199</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
@@ -4371,7 +4269,7 @@
         <v>200</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
@@ -4379,7 +4277,7 @@
         <v>201</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
@@ -4387,7 +4285,7 @@
         <v>202</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
@@ -4395,7 +4293,7 @@
         <v>203</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
@@ -4403,7 +4301,7 @@
         <v>204</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
@@ -4411,7 +4309,7 @@
         <v>205</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
@@ -4419,7 +4317,7 @@
         <v>206</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
@@ -4427,7 +4325,7 @@
         <v>207</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
@@ -4435,7 +4333,7 @@
         <v>208</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
@@ -4443,7 +4341,7 @@
         <v>209</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
@@ -4451,7 +4349,7 @@
         <v>210</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
@@ -4459,7 +4357,7 @@
         <v>211</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
@@ -4467,7 +4365,7 @@
         <v>212</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
@@ -4475,7 +4373,7 @@
         <v>213</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
@@ -4483,7 +4381,7 @@
         <v>214</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
@@ -4491,7 +4389,7 @@
         <v>215</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
@@ -4499,7 +4397,7 @@
         <v>216</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
@@ -4507,7 +4405,7 @@
         <v>217</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
@@ -4515,7 +4413,7 @@
         <v>218</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
@@ -4523,7 +4421,7 @@
         <v>219</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
@@ -4531,7 +4429,7 @@
         <v>220</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
@@ -4539,7 +4437,7 @@
         <v>221</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
@@ -4547,7 +4445,7 @@
         <v>222</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
@@ -4555,7 +4453,7 @@
         <v>223</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
@@ -4563,7 +4461,7 @@
         <v>224</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
@@ -4571,7 +4469,7 @@
         <v>225</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
@@ -4579,7 +4477,7 @@
         <v>226</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
@@ -4587,7 +4485,7 @@
         <v>227</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
@@ -4595,7 +4493,7 @@
         <v>228</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
@@ -4603,7 +4501,7 @@
         <v>229</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
@@ -4611,7 +4509,7 @@
         <v>230</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
@@ -4619,7 +4517,7 @@
         <v>231</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
@@ -4627,7 +4525,7 @@
         <v>232</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
@@ -4635,7 +4533,7 @@
         <v>233</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
@@ -4643,7 +4541,7 @@
         <v>234</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
@@ -4651,7 +4549,7 @@
         <v>235</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
@@ -4659,7 +4557,7 @@
         <v>236</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
@@ -4667,7 +4565,7 @@
         <v>237</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
@@ -4675,7 +4573,7 @@
         <v>238</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
@@ -4683,7 +4581,7 @@
         <v>239</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
@@ -4691,7 +4589,7 @@
         <v>240</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
@@ -4699,7 +4597,7 @@
         <v>241</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.3">
@@ -4707,7 +4605,7 @@
         <v>242</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.3">
@@ -4715,7 +4613,7 @@
         <v>243</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.3">
@@ -4723,7 +4621,7 @@
         <v>244</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.3">
@@ -4731,7 +4629,7 @@
         <v>245</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.3">
@@ -4739,7 +4637,7 @@
         <v>246</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.3">
@@ -4747,7 +4645,7 @@
         <v>247</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.3">
@@ -4755,7 +4653,7 @@
         <v>248</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.3">
@@ -4763,7 +4661,7 @@
         <v>249</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.3">
@@ -4771,7 +4669,7 @@
         <v>250</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.3">
@@ -4779,7 +4677,7 @@
         <v>251</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.3">
@@ -4787,7 +4685,7 @@
         <v>252</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.3">
@@ -4795,7 +4693,7 @@
         <v>253</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
@@ -4803,7 +4701,7 @@
         <v>254</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
@@ -4811,7 +4709,7 @@
         <v>255</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
@@ -4819,7 +4717,7 @@
         <v>256</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
@@ -4827,7 +4725,7 @@
         <v>257</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
@@ -4835,7 +4733,7 @@
         <v>258</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.3">
@@ -4843,7 +4741,7 @@
         <v>259</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
@@ -4851,7 +4749,7 @@
         <v>260</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
@@ -4859,7 +4757,7 @@
         <v>261</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
@@ -4867,7 +4765,7 @@
         <v>262</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
@@ -4875,7 +4773,7 @@
         <v>263</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
@@ -4883,7 +4781,7 @@
         <v>264</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
@@ -4891,7 +4789,7 @@
         <v>265</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.3">
@@ -4899,7 +4797,7 @@
         <v>266</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.3">
@@ -4907,7 +4805,7 @@
         <v>267</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
@@ -4915,7 +4813,7 @@
         <v>268</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
@@ -4923,7 +4821,7 @@
         <v>269</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.3">
@@ -4931,7 +4829,7 @@
         <v>270</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.3">
@@ -4939,7 +4837,7 @@
         <v>271</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.3">
@@ -4947,7 +4845,7 @@
         <v>272</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.3">
@@ -4955,7 +4853,7 @@
         <v>273</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.3">
@@ -4963,7 +4861,7 @@
         <v>274</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.3">
@@ -4971,7 +4869,7 @@
         <v>275</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.3">
@@ -4979,7 +4877,7 @@
         <v>276</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.3">
@@ -4987,7 +4885,7 @@
         <v>277</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.3">
@@ -4995,7 +4893,7 @@
         <v>278</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.3">
@@ -5003,7 +4901,7 @@
         <v>279</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.3">
@@ -5011,7 +4909,7 @@
         <v>280</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.3">
@@ -5019,7 +4917,7 @@
         <v>281</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.3">
@@ -5027,7 +4925,7 @@
         <v>282</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.3">
@@ -5035,7 +4933,7 @@
         <v>283</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.3">
@@ -5043,7 +4941,7 @@
         <v>284</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.3">
@@ -5051,7 +4949,7 @@
         <v>285</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.3">
@@ -5059,7 +4957,7 @@
         <v>286</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.3">
@@ -5067,7 +4965,7 @@
         <v>287</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.3">
@@ -5075,7 +4973,7 @@
         <v>288</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.3">
@@ -5083,7 +4981,7 @@
         <v>289</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.3">
@@ -5091,7 +4989,7 @@
         <v>290</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.3">
@@ -5099,7 +4997,7 @@
         <v>291</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.3">
@@ -5107,7 +5005,7 @@
         <v>292</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.3">
@@ -5115,7 +5013,7 @@
         <v>293</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
@@ -5123,7 +5021,7 @@
         <v>294</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.3">
@@ -5131,7 +5029,7 @@
         <v>295</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.3">
@@ -5139,7 +5037,7 @@
         <v>296</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.3">
@@ -5147,7 +5045,7 @@
         <v>297</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.3">
@@ -5155,7 +5053,7 @@
         <v>298</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.3">
@@ -5163,7 +5061,7 @@
         <v>299</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.3">
@@ -5171,7 +5069,7 @@
         <v>300</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.3">
@@ -5179,7 +5077,7 @@
         <v>301</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.3">
@@ -5187,7 +5085,7 @@
         <v>302</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.3">
@@ -5195,7 +5093,7 @@
         <v>303</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.3">
@@ -5203,7 +5101,7 @@
         <v>304</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.3">
@@ -5211,7 +5109,7 @@
         <v>305</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.3">
@@ -5219,7 +5117,7 @@
         <v>306</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.3">
@@ -5227,7 +5125,7 @@
         <v>307</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.3">
@@ -5235,7 +5133,7 @@
         <v>308</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.3">
@@ -5243,7 +5141,7 @@
         <v>309</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.3">
@@ -5251,7 +5149,7 @@
         <v>310</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.3">
@@ -5259,7 +5157,7 @@
         <v>311</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.3">
@@ -5267,7 +5165,7 @@
         <v>312</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.3">
@@ -5275,7 +5173,7 @@
         <v>313</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.3">
@@ -5283,7 +5181,7 @@
         <v>314</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.3">
@@ -5291,7 +5189,7 @@
         <v>315</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.3">
@@ -5299,7 +5197,7 @@
         <v>316</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.3">
@@ -5307,7 +5205,7 @@
         <v>317</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.3">
@@ -5315,7 +5213,7 @@
         <v>318</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.3">
@@ -5323,7 +5221,7 @@
         <v>319</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.3">
@@ -5331,7 +5229,7 @@
         <v>320</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.3">
@@ -5339,7 +5237,7 @@
         <v>321</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.3">
@@ -5347,7 +5245,7 @@
         <v>322</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.3">
@@ -5355,7 +5253,7 @@
         <v>323</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.3">
@@ -5363,7 +5261,7 @@
         <v>324</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.3">
@@ -5371,7 +5269,7 @@
         <v>325</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.3">
@@ -5379,7 +5277,7 @@
         <v>326</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.3">
@@ -5387,7 +5285,7 @@
         <v>327</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.3">
@@ -5395,7 +5293,7 @@
         <v>328</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.3">
@@ -5403,7 +5301,7 @@
         <v>329</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.3">
@@ -5411,7 +5309,7 @@
         <v>330</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.3">
@@ -5419,7 +5317,7 @@
         <v>331</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.3">
@@ -5427,7 +5325,7 @@
         <v>332</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.3">
@@ -5435,7 +5333,7 @@
         <v>333</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.3">
@@ -5443,7 +5341,7 @@
         <v>334</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.3">
@@ -5451,7 +5349,7 @@
         <v>335</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.3">
@@ -5459,7 +5357,7 @@
         <v>336</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.3">
@@ -5467,7 +5365,7 @@
         <v>337</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.3">
@@ -5475,7 +5373,7 @@
         <v>338</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.3">
@@ -5483,7 +5381,7 @@
         <v>339</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.3">
@@ -5491,7 +5389,7 @@
         <v>340</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
     </row>
   </sheetData>
@@ -5518,7 +5416,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
@@ -5526,7 +5424,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
@@ -5534,7 +5432,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
@@ -5542,7 +5440,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
@@ -5550,7 +5448,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
@@ -5558,7 +5456,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.3">
@@ -5566,7 +5464,7 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
@@ -5574,7 +5472,7 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
@@ -5582,7 +5480,7 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
@@ -5590,7 +5488,7 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
@@ -5598,7 +5496,7 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.3">
@@ -5606,7 +5504,7 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.3">
@@ -5614,7 +5512,7 @@
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.3">
@@ -5622,7 +5520,7 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.3">
@@ -5630,7 +5528,7 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
@@ -5638,7 +5536,7 @@
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
@@ -5646,7 +5544,7 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
@@ -5654,7 +5552,7 @@
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
@@ -5662,7 +5560,7 @@
         <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.3">
@@ -5670,7 +5568,7 @@
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.3">
@@ -5678,7 +5576,7 @@
         <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.3">
@@ -5686,7 +5584,7 @@
         <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.3">
@@ -5694,7 +5592,7 @@
         <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.3">
@@ -5702,7 +5600,7 @@
         <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.3">
@@ -5710,7 +5608,7 @@
         <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.3">
@@ -5718,7 +5616,7 @@
         <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.3">
@@ -5726,7 +5624,7 @@
         <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Framework_DX11/Client/Bin/DataFiles/Item_Initialize_Data.xlsx
+++ b/Framework_DX11/Client/Bin/DataFiles/Item_Initialize_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeamProject\Bulid\NewBulid_12_02\Dx11_LiesOfP\Framework_DX11\Client\Bin\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C8DFDED-35FC-4FB4-ABEE-0400CE81EE8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED2C9215-D54D-408A-B1DB-CF48D37E7A71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1310,7 +1310,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1318,6 +1318,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1600,8 +1601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H50" sqref="H50"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1723,7 +1724,7 @@
       <c r="A9">
         <v>6</v>
       </c>
-      <c r="B9" s="6" t="str">
+      <c r="B9" s="7" t="str">
         <f>VLOOKUP(C9,Sheet2!$A:$B,2)</f>
         <v>그라인더</v>
       </c>
@@ -1738,7 +1739,7 @@
       <c r="A10">
         <v>7</v>
       </c>
-      <c r="B10" s="6" t="str">
+      <c r="B10" s="7" t="str">
         <f>VLOOKUP(C10,Sheet2!$A:$B,2)</f>
         <v>문페이즈 회중시계</v>
       </c>
@@ -1768,7 +1769,7 @@
       <c r="A12">
         <v>9</v>
       </c>
-      <c r="B12" s="6" t="str">
+      <c r="B12" s="7" t="str">
         <f>VLOOKUP(C12,Sheet2!$A:$B,2)</f>
         <v>테르밋</v>
       </c>
@@ -1798,7 +1799,7 @@
       <c r="A14">
         <v>11</v>
       </c>
-      <c r="B14" s="6" t="str">
+      <c r="B14" s="7" t="str">
         <f>VLOOKUP(C14,Sheet2!$A:$B,2)</f>
         <v>펄스전지</v>
       </c>
@@ -2098,7 +2099,7 @@
       <c r="A34">
         <v>31</v>
       </c>
-      <c r="B34" s="6" t="str">
+      <c r="B34" s="7" t="str">
         <f>VLOOKUP(C34,Sheet2!$A:$B,2)</f>
         <v>최후의 수단</v>
       </c>
@@ -2308,7 +2309,7 @@
       <c r="A48">
         <v>45</v>
       </c>
-      <c r="B48" s="6" t="str">
+      <c r="B48" s="7" t="str">
         <f>VLOOKUP(C48,Sheet2!$A:$B,2)</f>
         <v>속성 정화 앰플</v>
       </c>
@@ -2473,10 +2474,10 @@
         <v>4</v>
       </c>
       <c r="C59" s="3">
+        <v>0</v>
+      </c>
+      <c r="D59" s="3">
         <v>1</v>
-      </c>
-      <c r="D59" s="3">
-        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -2487,10 +2488,10 @@
         <v>5</v>
       </c>
       <c r="C60" s="3">
+        <v>0</v>
+      </c>
+      <c r="D60" s="3">
         <v>2</v>
-      </c>
-      <c r="D60" s="3">
-        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -2501,10 +2502,10 @@
         <v>6</v>
       </c>
       <c r="C61" s="3">
+        <v>2</v>
+      </c>
+      <c r="D61" s="3">
         <v>0</v>
-      </c>
-      <c r="D61" s="3">
-        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -2518,7 +2519,7 @@
         <v>1</v>
       </c>
       <c r="D62" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -2529,10 +2530,10 @@
         <v>8</v>
       </c>
       <c r="C63" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D63" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -2546,7 +2547,7 @@
         <v>2</v>
       </c>
       <c r="D64" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -2560,7 +2561,7 @@
         <v>2</v>
       </c>
       <c r="D65" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -2574,7 +2575,7 @@
         <v>2</v>
       </c>
       <c r="D66" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -2588,7 +2589,7 @@
         <v>2</v>
       </c>
       <c r="D67" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">

--- a/Framework_DX11/Client/Bin/DataFiles/Item_Initialize_Data.xlsx
+++ b/Framework_DX11/Client/Bin/DataFiles/Item_Initialize_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeamProject\Bulid\NewBulid_12_02\Dx11_LiesOfP\Framework_DX11\Client\Bin\DataFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeamProject\Bulid\NewBulid_12_21\Dx11_LiesOfP\Framework_DX11\Client\Bin\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED2C9215-D54D-408A-B1DB-CF48D37E7A71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D893C1-6D20-4759-8E7B-7FB7DFB8A2B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Item_Initialize_Data" sheetId="1" r:id="rId1"/>
@@ -1601,8 +1601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G55" sqref="G55"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J52" sqref="J52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Framework_DX11/Client/Bin/DataFiles/Item_Initialize_Data.xlsx
+++ b/Framework_DX11/Client/Bin/DataFiles/Item_Initialize_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeamProject\Bulid\NewBulid_12_21\Dx11_LiesOfP\Framework_DX11\Client\Bin\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D893C1-6D20-4759-8E7B-7FB7DFB8A2B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE4B44F4-31B7-4310-8B2B-5B711EC29EC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Item_Initialize_Data" sheetId="1" r:id="rId1"/>
@@ -1601,8 +1601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J52" sqref="J52"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2432,10 +2432,10 @@
         <v>1</v>
       </c>
       <c r="C56" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D56" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">

--- a/Framework_DX11/Client/Bin/DataFiles/Item_Initialize_Data.xlsx
+++ b/Framework_DX11/Client/Bin/DataFiles/Item_Initialize_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeamProject\Bulid\NewBulid_12_21\Dx11_LiesOfP\Framework_DX11\Client\Bin\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE4B44F4-31B7-4310-8B2B-5B711EC29EC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA3C7134-3D0C-4C86-B7F9-F37B2888D7E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Item_Initialize_Data" sheetId="1" r:id="rId1"/>
@@ -1601,8 +1601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1711,10 +1711,10 @@
       </c>
       <c r="B8" s="6" t="str">
         <f>VLOOKUP(C8,Sheet2!$A:$B,2)</f>
-        <v>철의 왼팔</v>
+        <v>이지스</v>
       </c>
       <c r="C8" s="6">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D8" s="6">
         <v>1</v>
@@ -2644,8 +2644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E497836E-55FF-4E22-880C-390C638C6EA7}">
   <dimension ref="A1:B343"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Framework_DX11/Client/Bin/DataFiles/Item_Initialize_Data.xlsx
+++ b/Framework_DX11/Client/Bin/DataFiles/Item_Initialize_Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeamProject\Bulid\NewBulid_12_21\Dx11_LiesOfP\Framework_DX11\Client\Bin\DataFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeamProject\Bulid\NewBulid_12_21\Dx11_LiesOfP\Framework_DX11\Client\Bin\DataFiles\아이템 모두 있는 버전\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{514C11FB-C033-48EF-8EF8-F671DA73BB75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CEC6D271-6194-418A-A6E4-E9580EBB8717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1214,7 +1214,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1250,8 +1250,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1279,6 +1286,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1310,7 +1323,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1319,6 +1332,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1599,10 +1613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D68"/>
+  <dimension ref="A1:D71"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+      <selection activeCell="K50" sqref="K50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2129,14 +2143,14 @@
       <c r="A36">
         <v>33</v>
       </c>
-      <c r="B36" s="6" t="str">
+      <c r="B36" s="8" t="str">
         <f>VLOOKUP(C36,Sheet2!$A:$B,2)</f>
-        <v>재충전의 아뮬렛</v>
-      </c>
-      <c r="C36" s="6">
-        <v>111</v>
-      </c>
-      <c r="D36" s="6">
+        <v>생명의 아뮬렛</v>
+      </c>
+      <c r="C36" s="8">
+        <v>101</v>
+      </c>
+      <c r="D36" s="8">
         <v>1</v>
       </c>
     </row>
@@ -2144,14 +2158,14 @@
       <c r="A37">
         <v>34</v>
       </c>
-      <c r="B37" s="6" t="str">
+      <c r="B37" s="8" t="str">
         <f>VLOOKUP(C37,Sheet2!$A:$B,2)</f>
-        <v>꿰뚫는 증오의 아뮬렛</v>
-      </c>
-      <c r="C37" s="6">
-        <v>87</v>
-      </c>
-      <c r="D37" s="6">
+        <v>도약의 아뮬렛</v>
+      </c>
+      <c r="C37" s="8">
+        <v>88</v>
+      </c>
+      <c r="D37" s="8">
         <v>1</v>
       </c>
     </row>
@@ -2159,14 +2173,14 @@
       <c r="A38">
         <v>35</v>
       </c>
-      <c r="B38" s="6" t="str">
+      <c r="B38" s="8" t="str">
         <f>VLOOKUP(C38,Sheet2!$A:$B,2)</f>
-        <v>철벽의 아뮬렛</v>
-      </c>
-      <c r="C38" s="6">
-        <v>113</v>
-      </c>
-      <c r="D38" s="6">
+        <v>라다 F350 프레임 +1</v>
+      </c>
+      <c r="C38" s="8">
+        <v>137</v>
+      </c>
+      <c r="D38" s="8">
         <v>1</v>
       </c>
     </row>
@@ -2176,10 +2190,10 @@
       </c>
       <c r="B39" s="6" t="str">
         <f>VLOOKUP(C39,Sheet2!$A:$B,2)</f>
-        <v>베테랑의 아뮬렛</v>
+        <v>재충전의 아뮬렛</v>
       </c>
       <c r="C39" s="6">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="D39" s="6">
         <v>1</v>
@@ -2191,10 +2205,10 @@
       </c>
       <c r="B40" s="6" t="str">
         <f>VLOOKUP(C40,Sheet2!$A:$B,2)</f>
-        <v>불굴의 아뮬렛</v>
+        <v>꿰뚫는 증오의 아뮬렛</v>
       </c>
       <c r="C40" s="6">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D40" s="6">
         <v>1</v>
@@ -2206,10 +2220,10 @@
       </c>
       <c r="B41" s="6" t="str">
         <f>VLOOKUP(C41,Sheet2!$A:$B,2)</f>
-        <v>퍼펫 스트링</v>
+        <v>철벽의 아뮬렛</v>
       </c>
       <c r="C41" s="6">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="D41" s="6">
         <v>1</v>
@@ -2221,10 +2235,10 @@
       </c>
       <c r="B42" s="6" t="str">
         <f>VLOOKUP(C42,Sheet2!$A:$B,2)</f>
-        <v>펄미니스</v>
+        <v>베테랑의 아뮬렛</v>
       </c>
       <c r="C42" s="6">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="D42" s="6">
         <v>1</v>
@@ -2236,13 +2250,13 @@
       </c>
       <c r="B43" s="6" t="str">
         <f>VLOOKUP(C43,Sheet2!$A:$B,2)</f>
-        <v>쿼츠</v>
+        <v>불굴의 아뮬렛</v>
       </c>
       <c r="C43" s="6">
-        <v>332</v>
+        <v>94</v>
       </c>
       <c r="D43" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -2251,10 +2265,10 @@
       </c>
       <c r="B44" s="6" t="str">
         <f>VLOOKUP(C44,Sheet2!$A:$B,2)</f>
-        <v>모나드의 등불</v>
+        <v>퍼펫 스트링</v>
       </c>
       <c r="C44" s="6">
-        <v>243</v>
+        <v>76</v>
       </c>
       <c r="D44" s="6">
         <v>1</v>
@@ -2266,28 +2280,28 @@
       </c>
       <c r="B45" s="6" t="str">
         <f>VLOOKUP(C45,Sheet2!$A:$B,2)</f>
-        <v>속성 저항 앰플</v>
+        <v>펄미니스</v>
       </c>
       <c r="C45" s="6">
-        <v>255</v>
+        <v>77</v>
       </c>
       <c r="D45" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>43</v>
       </c>
-      <c r="B46" s="7" t="str">
+      <c r="B46" s="6" t="str">
         <f>VLOOKUP(C46,Sheet2!$A:$B,2)</f>
-        <v>속성 정화 앰플</v>
+        <v>쿼츠</v>
       </c>
       <c r="C46" s="6">
-        <v>256</v>
+        <v>332</v>
       </c>
       <c r="D46" s="6">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -2296,13 +2310,13 @@
       </c>
       <c r="B47" s="6" t="str">
         <f>VLOOKUP(C47,Sheet2!$A:$B,2)</f>
-        <v>제미니의 긴급 보호</v>
+        <v>모나드의 등불</v>
       </c>
       <c r="C47" s="6">
-        <v>266</v>
+        <v>243</v>
       </c>
       <c r="D47" s="6">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -2311,10 +2325,10 @@
       </c>
       <c r="B48" s="6" t="str">
         <f>VLOOKUP(C48,Sheet2!$A:$B,2)</f>
-        <v>제미니의 철벽 수호</v>
+        <v>속성 저항 앰플</v>
       </c>
       <c r="C48" s="6">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="D48" s="6">
         <v>10</v>
@@ -2324,12 +2338,12 @@
       <c r="A49">
         <v>46</v>
       </c>
-      <c r="B49" s="6" t="str">
+      <c r="B49" s="7" t="str">
         <f>VLOOKUP(C49,Sheet2!$A:$B,2)</f>
-        <v>투척용 전지</v>
+        <v>속성 정화 앰플</v>
       </c>
       <c r="C49" s="6">
-        <v>279</v>
+        <v>256</v>
       </c>
       <c r="D49" s="6">
         <v>10</v>
@@ -2341,13 +2355,13 @@
       </c>
       <c r="B50" s="6" t="str">
         <f>VLOOKUP(C50,Sheet2!$A:$B,2)</f>
-        <v>공방연합 강화 프레임</v>
+        <v>제미니의 긴급 보호</v>
       </c>
       <c r="C50" s="6">
-        <v>123</v>
+        <v>266</v>
       </c>
       <c r="D50" s="6">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -2356,13 +2370,13 @@
       </c>
       <c r="B51" s="6" t="str">
         <f>VLOOKUP(C51,Sheet2!$A:$B,2)</f>
-        <v>라다 F150 프레임</v>
+        <v>제미니의 철벽 수호</v>
       </c>
       <c r="C51" s="6">
-        <v>130</v>
+        <v>267</v>
       </c>
       <c r="D51" s="6">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -2371,66 +2385,69 @@
       </c>
       <c r="B52" s="6" t="str">
         <f>VLOOKUP(C52,Sheet2!$A:$B,2)</f>
-        <v>아크 중량 프레임</v>
+        <v>투척용 전지</v>
       </c>
       <c r="C52" s="6">
-        <v>139</v>
+        <v>279</v>
       </c>
       <c r="D52" s="6">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>0</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C53" s="3">
-        <v>8</v>
-      </c>
-      <c r="D53" s="3">
-        <v>0</v>
+        <v>50</v>
+      </c>
+      <c r="B53" s="6" t="str">
+        <f>VLOOKUP(C53,Sheet2!$A:$B,2)</f>
+        <v>공방연합 강화 프레임</v>
+      </c>
+      <c r="C53" s="6">
+        <v>123</v>
+      </c>
+      <c r="D53" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>2</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C54" s="3">
-        <v>8</v>
-      </c>
-      <c r="D54" s="3">
+        <v>51</v>
+      </c>
+      <c r="B54" s="6" t="str">
+        <f>VLOOKUP(C54,Sheet2!$A:$B,2)</f>
+        <v>라다 F150 프레임</v>
+      </c>
+      <c r="C54" s="6">
+        <v>130</v>
+      </c>
+      <c r="D54" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>4</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C55" s="3">
-        <v>14</v>
-      </c>
-      <c r="D55" s="3">
-        <v>0</v>
+        <v>52</v>
+      </c>
+      <c r="B55" s="6" t="str">
+        <f>VLOOKUP(C55,Sheet2!$A:$B,2)</f>
+        <v>아크 중량 프레임</v>
+      </c>
+      <c r="C55" s="6">
+        <v>139</v>
+      </c>
+      <c r="D55" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C56" s="3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D56" s="3">
         <v>0</v>
@@ -2438,13 +2455,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C57" s="3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D57" s="3">
         <v>1</v>
@@ -2452,27 +2469,27 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C58" s="3">
+        <v>14</v>
+      </c>
+      <c r="D58" s="3">
         <v>0</v>
-      </c>
-      <c r="D58" s="3">
-        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C59" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D59" s="3">
         <v>0</v>
@@ -2480,69 +2497,69 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C60" s="3">
+        <v>0</v>
+      </c>
+      <c r="D60" s="3">
         <v>1</v>
-      </c>
-      <c r="D60" s="3">
-        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C61" s="3">
         <v>0</v>
       </c>
       <c r="D61" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C62" s="3">
         <v>2</v>
       </c>
       <c r="D62" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C63" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D63" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C64" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D64" s="3">
         <v>3</v>
@@ -2550,57 +2567,99 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C65" s="3">
         <v>2</v>
       </c>
       <c r="D65" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C66" s="3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D66" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C67" s="3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D67" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68">
+        <v>20</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68" s="3">
+        <v>2</v>
+      </c>
+      <c r="D68" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>21</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C69" s="3">
+        <v>-1</v>
+      </c>
+      <c r="D69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>22</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C70" s="3">
+        <v>-1</v>
+      </c>
+      <c r="D70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71">
         <v>23</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B71" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C68" s="3">
+      <c r="C71" s="3">
         <v>-1</v>
       </c>
-      <c r="D68" s="3">
+      <c r="D71" s="3">
         <v>0</v>
       </c>
     </row>
